--- a/Semester_3/Physics_Practicals/Analysis/Experiment4/Analysis/data.xlsx
+++ b/Semester_3/Physics_Practicals/Analysis/Experiment4/Analysis/data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Steel Wire exp 1" sheetId="5" r:id="rId4"/>
+    <sheet name="Brass wire exp 1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Iron Wire</t>
   </si>
@@ -45,6 +46,27 @@
   </si>
   <si>
     <t>1/Fundamental L</t>
+  </si>
+  <si>
+    <t>wedge 1</t>
+  </si>
+  <si>
+    <t>wedge 2</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>l * freq</t>
+  </si>
+  <si>
+    <t>T = 2.08kg</t>
+  </si>
+  <si>
+    <t>T = 2.592kg</t>
   </si>
 </sst>
 </file>
@@ -114,7 +136,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -200,7 +221,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -301,11 +321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146250496"/>
-        <c:axId val="146251672"/>
+        <c:axId val="140951160"/>
+        <c:axId val="140951544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146250496"/>
+        <c:axId val="140951160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -362,12 +382,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146251672"/>
+        <c:crossAx val="140951544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146251672"/>
+        <c:axId val="140951544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146250496"/>
+        <c:crossAx val="140951160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -488,7 +508,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -578,7 +597,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -661,11 +679,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202981344"/>
-        <c:axId val="202980168"/>
+        <c:axId val="175764240"/>
+        <c:axId val="175766672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202981344"/>
+        <c:axId val="175764240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,12 +740,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202980168"/>
+        <c:crossAx val="175766672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202980168"/>
+        <c:axId val="175766672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +802,957 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202981344"/>
+        <c:crossAx val="175764240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Steel Wire exp 1'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Steel Wire exp 1'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4000000000000057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="141032800"/>
+        <c:axId val="141033184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="141032800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141033184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="141033184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Wavelength/2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141032800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Brass wire exp 1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>l</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Brass wire exp 1'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Brass wire exp 1'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>24.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="179231728"/>
+        <c:axId val="179232512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="179231728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="179232512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="179232512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="179231728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -913,6 +1881,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1432,6 +2480,1042 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1998,6 +4082,76 @@
       <xdr:colOff>509587</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2284,9 +4438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2419,8 +4571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,12 +4804,384 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>256</v>
+      </c>
+      <c r="D2">
+        <f>B2-A2</f>
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E9" si="0">D2*C2</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>43.2</v>
+      </c>
+      <c r="B3">
+        <v>56.8</v>
+      </c>
+      <c r="C3">
+        <v>288</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="1">B3-A3</f>
+        <v>13.599999999999994</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>3916.7999999999984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>43.7</v>
+      </c>
+      <c r="B4">
+        <v>56.4</v>
+      </c>
+      <c r="C4">
+        <v>320</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>12.699999999999996</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4063.9999999999986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>44.2</v>
+      </c>
+      <c r="B5">
+        <v>55.8</v>
+      </c>
+      <c r="C5">
+        <v>341</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>11.599999999999994</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3955.5999999999981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>44.9</v>
+      </c>
+      <c r="B6">
+        <v>55.1</v>
+      </c>
+      <c r="C6">
+        <v>384</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>10.200000000000003</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3916.8000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>45.4</v>
+      </c>
+      <c r="B7">
+        <v>54.6</v>
+      </c>
+      <c r="C7">
+        <v>426</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3919.2000000000012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>45.9</v>
+      </c>
+      <c r="B8">
+        <v>54.1</v>
+      </c>
+      <c r="C8">
+        <v>480</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3936.0000000000014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>46.3</v>
+      </c>
+      <c r="B9">
+        <v>53.7</v>
+      </c>
+      <c r="C9">
+        <v>512</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3788.8000000000029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="B2">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>256</v>
+      </c>
+      <c r="D2">
+        <f>B2-A2</f>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E9" si="0">D2*C2</f>
+        <v>6195.2000000000007</v>
+      </c>
+      <c r="G2">
+        <f>6048/256</f>
+        <v>23.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>39.5</v>
+      </c>
+      <c r="B3">
+        <v>60.5</v>
+      </c>
+      <c r="C3">
+        <v>288</v>
+      </c>
+      <c r="D3">
+        <f>B3-A3</f>
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>40.6</v>
+      </c>
+      <c r="B4">
+        <v>59.4</v>
+      </c>
+      <c r="C4">
+        <v>320</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D3:D9" si="1">B4-A4</f>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>6015.9999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>41.5</v>
+      </c>
+      <c r="B5">
+        <v>58.5</v>
+      </c>
+      <c r="C5">
+        <v>341</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>42.5</v>
+      </c>
+      <c r="B6">
+        <v>57.5</v>
+      </c>
+      <c r="C6">
+        <v>384</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>43.5</v>
+      </c>
+      <c r="B7">
+        <v>56.5</v>
+      </c>
+      <c r="C7">
+        <v>426</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>44.7</v>
+      </c>
+      <c r="B8">
+        <v>55.6</v>
+      </c>
+      <c r="C8">
+        <v>480</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>10.899999999999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5231.9999999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>512</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Semester_3/Physics_Practicals/Analysis/Experiment4/Analysis/data.xlsx
+++ b/Semester_3/Physics_Practicals/Analysis/Experiment4/Analysis/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,6 +136,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -221,6 +222,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -321,11 +323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140951160"/>
-        <c:axId val="140951544"/>
+        <c:axId val="159112616"/>
+        <c:axId val="236351352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140951160"/>
+        <c:axId val="159112616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,12 +384,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140951544"/>
+        <c:crossAx val="236351352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140951544"/>
+        <c:axId val="236351352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140951160"/>
+        <c:crossAx val="159112616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -508,6 +510,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -597,6 +600,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -679,11 +683,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175764240"/>
-        <c:axId val="175766672"/>
+        <c:axId val="236349392"/>
+        <c:axId val="236349784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175764240"/>
+        <c:axId val="236349392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,12 +744,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175766672"/>
+        <c:crossAx val="236349784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175766672"/>
+        <c:axId val="236349784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175764240"/>
+        <c:crossAx val="236349392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1042,11 +1046,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141032800"/>
-        <c:axId val="141033184"/>
+        <c:axId val="236350960"/>
+        <c:axId val="236352920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141032800"/>
+        <c:axId val="236350960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,12 +1177,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141033184"/>
+        <c:crossAx val="236352920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141033184"/>
+        <c:axId val="236352920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141032800"/>
+        <c:crossAx val="236350960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1539,11 +1543,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179231728"/>
-        <c:axId val="179232512"/>
+        <c:axId val="236352528"/>
+        <c:axId val="235829776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179231728"/>
+        <c:axId val="236352528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,12 +1649,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179232512"/>
+        <c:crossAx val="235829776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179232512"/>
+        <c:axId val="235829776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179231728"/>
+        <c:crossAx val="236352528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4037,16 +4041,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4438,7 +4442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4806,7 +4812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4997,7 +5003,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5072,7 +5078,7 @@
         <v>320</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D3:D9" si="1">B4-A4</f>
+        <f t="shared" ref="D4:D9" si="1">B4-A4</f>
         <v>18.799999999999997</v>
       </c>
       <c r="E4">

--- a/Semester_3/Physics_Practicals/Analysis/Experiment4/Analysis/data.xlsx
+++ b/Semester_3/Physics_Practicals/Analysis/Experiment4/Analysis/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="8760" tabRatio="637" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Steel Wire exp 1" sheetId="5" r:id="rId4"/>
     <sheet name="Brass wire exp 1" sheetId="6" r:id="rId5"/>
+    <sheet name="Output for Steel and Brass" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
   <si>
     <t>Iron Wire</t>
   </si>
@@ -63,17 +64,92 @@
     <t>l * freq</t>
   </si>
   <si>
-    <t>T = 2.08kg</t>
+    <t>T = 2.592kg</t>
   </si>
   <si>
-    <t>T = 2.592kg</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Tension</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>1/I</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Kg/m</t>
+  </si>
+  <si>
+    <t>g/cm</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>mg/cm</t>
+  </si>
+  <si>
+    <t>BRASS WIRE</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>L (in m)</t>
+  </si>
+  <si>
+    <t>STEEL WIRE (Constant frequency)</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>deviation</t>
+  </si>
+  <si>
+    <t>r square</t>
+  </si>
+  <si>
+    <t>deviation y</t>
+  </si>
+  <si>
+    <t>STEEL WIRE</t>
+  </si>
+  <si>
+    <t>33.8 ± 1.9</t>
+  </si>
+  <si>
+    <t>38.4 ± 1.9</t>
+  </si>
+  <si>
+    <t>±0.0084</t>
+  </si>
+  <si>
+    <t>±0.918</t>
+  </si>
+  <si>
+    <t>552 ± 79</t>
+  </si>
+  <si>
+    <t>make all text black to find hidden stuff!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +157,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,15 +214,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -323,11 +477,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159112616"/>
-        <c:axId val="236351352"/>
+        <c:axId val="158499240"/>
+        <c:axId val="158499632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159112616"/>
+        <c:axId val="158499240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,12 +538,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236351352"/>
+        <c:crossAx val="158499632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236351352"/>
+        <c:axId val="158499632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -446,7 +600,401 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159112616"/>
+        <c:crossAx val="158499240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L (cm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="3.7000000000000005E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="274157328"/>
+        <c:axId val="274158504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="274157328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="274158504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="274158504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="274157328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -551,6 +1099,474 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L (cm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="30300520"/>
+        <c:axId val="30299736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="30300520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30299736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="30299736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30300520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Sheet2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -683,11 +1699,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236349392"/>
-        <c:axId val="236349784"/>
+        <c:axId val="157068664"/>
+        <c:axId val="157069840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236349392"/>
+        <c:axId val="157068664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,12 +1760,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236349784"/>
+        <c:crossAx val="157069840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236349784"/>
+        <c:axId val="157069840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +1822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236349392"/>
+        <c:crossAx val="157068664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -855,7 +1871,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1046,11 +2062,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236350960"/>
-        <c:axId val="236352920"/>
+        <c:axId val="157069448"/>
+        <c:axId val="157069056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236350960"/>
+        <c:axId val="157069448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,12 +2193,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236352920"/>
+        <c:crossAx val="157069056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236352920"/>
+        <c:axId val="157069056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +2325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236350960"/>
+        <c:crossAx val="157069448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1358,7 +2374,473 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Steel Wire exp 1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>freq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Steel Wire exp 1'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3529411764705914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.874015748031499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6206896551724181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8039215686274481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.869565217391301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.195121951219509</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.513513513513503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Steel Wire exp 1'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="243278024"/>
+        <c:axId val="243279592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="243278024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>1/l (1/m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243279592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="243279592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>frequency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (hertz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243278024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1543,11 +3025,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236352528"/>
-        <c:axId val="235829776"/>
+        <c:axId val="243316712"/>
+        <c:axId val="243317104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236352528"/>
+        <c:axId val="243316712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,12 +3131,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235829776"/>
+        <c:crossAx val="243317104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235829776"/>
+        <c:axId val="243317104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,7 +3238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236352528"/>
+        <c:crossAx val="243316712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1805,7 +3287,1485 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Brass wire exp 1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>freq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Brass wire exp 1'!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.1322314049586772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3191489361702136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1743119266055064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Brass wire exp 1'!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="241510384"/>
+        <c:axId val="241509600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="241510384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>1/l</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (in 1/m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241509600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="241509600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>frequency in hertz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241510384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Brass wire exp 1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>freq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="6.7820200000000025E-4"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Brass wire exp 1'!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.1322314049586772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3191489361702136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1743119266055064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Brass wire exp 1'!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="241509992"/>
+        <c:axId val="237525560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="241509992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>1/l</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (in 1/m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="237525560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="237525560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>frequency (hertz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241509992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Steel Wire exp 1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>freq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="6.7820200000000025E-4"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Steel Wire exp 1'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3529411764705914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.874015748031499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6206896551724181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8039215686274481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.869565217391301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.195121951219509</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.513513513513503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Steel Wire exp 1'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="272595432"/>
+        <c:axId val="272595824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="272595432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>1/l (1/m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272595824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="272595824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>frequency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (hertz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272595432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1965,6 +4925,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2483,7 +5643,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3001,7 +6161,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3519,7 +6679,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4037,20 +7197,3128 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4064,6 +10332,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4111,16 +10409,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4139,6 +10437,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4146,16 +10474,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4169,6 +10497,137 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4440,23 +10899,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4470,14 +10935,30 @@
         <f>(C2-B2)</f>
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <f>D2/100</f>
+        <v>0.13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
       <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4491,8 +10972,24 @@
         <f t="shared" ref="D3:D8" si="0">(C3-B3)</f>
         <v>17.399999999999999</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="1">D3/100</f>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3.109</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4506,8 +11003,25 @@
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.255</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <f>K3*9.8</f>
+        <v>30.468200000000003</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4521,8 +11035,34 @@
         <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>0.1174</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5">
+        <f t="array" ref="Q5:R7">LINEST(G2:G8,F2:F8,,TRUE)</f>
+        <v>0.11739285714285713</v>
+      </c>
+      <c r="R5">
+        <v>-4.7571428571428542E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4536,8 +11076,37 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <f>K4*(1/(K5*2*K2)^2)</f>
+        <v>5.5265055765318406E-2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6">
+        <v>8.4378731965841156E-3</v>
+      </c>
+      <c r="R6">
+        <v>3.7735316106171056E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4551,8 +11120,34 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="K7">
+        <f>K6*10000</f>
+        <v>552.65055765318402</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7">
+        <v>0.9748187931137775</v>
+      </c>
+      <c r="R7">
+        <v>4.464902814491839E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4565,6 +11160,13 @@
       <c r="D8">
         <f t="shared" si="0"/>
         <v>79</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -4810,15 +11412,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4834,8 +11439,14 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>42</v>
       </c>
@@ -4853,8 +11464,19 @@
         <f t="shared" ref="E2:E9" si="0">D2*C2</f>
         <v>4096</v>
       </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <f>$F$2/D2</f>
+        <v>6.25</v>
+      </c>
+      <c r="H2">
+        <f>C2</f>
+        <v>256</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>43.2</v>
       </c>
@@ -4872,8 +11494,16 @@
         <f t="shared" si="0"/>
         <v>3916.7999999999984</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="2">$F$2/D3</f>
+        <v>7.3529411764705914</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="3">C3</f>
+        <v>288</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43.7</v>
       </c>
@@ -4891,8 +11521,25 @@
         <f t="shared" si="0"/>
         <v>4063.9999999999986</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>7.874015748031499</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2.08</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>44.2</v>
       </c>
@@ -4910,8 +11557,26 @@
         <f t="shared" si="0"/>
         <v>3955.5999999999981</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>8.6206896551724181</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>341</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <f>K4*9.8</f>
+        <v>20.384000000000004</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>44.9</v>
       </c>
@@ -4929,8 +11594,35 @@
         <f t="shared" si="0"/>
         <v>3916.8000000000011</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>9.8039215686274481</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>36.396999999999998</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6">
+        <f t="array" ref="Q6:R8">LINEST(G2:G9,H2:H9,,TRUE)</f>
+        <v>2.7369789883019791E-2</v>
+      </c>
+      <c r="R6">
+        <v>-0.72764866847678</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>45.4</v>
       </c>
@@ -4948,8 +11640,41 @@
         <f t="shared" si="0"/>
         <v>3919.2000000000012</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>10.869565217391301</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>426</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <f>K5/(4*K6*K6)</f>
+        <v>3.846787905942495E-3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <v>6.9093366103555661E-4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7">
+        <v>6.9093366103555661E-4</v>
+      </c>
+      <c r="R7">
+        <v>0.26632748024150887</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>45.9</v>
       </c>
@@ -4967,8 +11692,39 @@
         <f t="shared" si="0"/>
         <v>3936.0000000000014</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>12.195121951219509</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="K8">
+        <f>K7*10000</f>
+        <v>38.467879059424952</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <f>M7*10000</f>
+        <v>6.9093366103555658</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>0.99619088932240218</v>
+      </c>
+      <c r="R8">
+        <v>0.16694432140080737</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>46.3</v>
       </c>
@@ -4986,10 +11742,13 @@
         <f t="shared" si="0"/>
         <v>3788.8000000000029</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>13.513513513513503</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5000,15 +11759,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="14" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -5024,8 +11787,18 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1">
+        <f>0.4*0.96</f>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>37.799999999999997</v>
       </c>
@@ -5043,12 +11816,23 @@
         <f t="shared" ref="E2:E9" si="0">D2*C2</f>
         <v>6195.2000000000007</v>
       </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
       <c r="G2">
-        <f>6048/256</f>
-        <v>23.625</v>
+        <f>$F$2/D2</f>
+        <v>4.1322314049586772</v>
+      </c>
+      <c r="H2">
+        <f>C2</f>
+        <v>256</v>
+      </c>
+      <c r="P2">
+        <f>1-0.384</f>
+        <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>39.5</v>
       </c>
@@ -5066,8 +11850,20 @@
         <f t="shared" si="0"/>
         <v>6048</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="1">$F$2/D3</f>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="2">C3</f>
+        <v>288</v>
+      </c>
+      <c r="P3">
+        <f>0.04*0.384</f>
+        <v>1.536E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40.6</v>
       </c>
@@ -5078,15 +11874,32 @@
         <v>320</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D9" si="1">B4-A4</f>
+        <f t="shared" ref="D4:D9" si="3">B4-A4</f>
         <v>18.799999999999997</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>6015.9999999999991</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>5.3191489361702136</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>41.5</v>
       </c>
@@ -5097,15 +11910,33 @@
         <v>341</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>5797</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <f>K4*9.8</f>
+        <v>25.401600000000002</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>42.5</v>
       </c>
@@ -5116,15 +11947,29 @@
         <v>384</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>5760</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>43.337000000000003</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>43.5</v>
       </c>
@@ -5135,15 +11980,49 @@
         <v>426</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>5538</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>426</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <f>K5/(4*K6*K6)</f>
+        <v>3.3812975786856772E-3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <v>6.7820192558075106E-4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7">
+        <f t="array" ref="Q7:R9">LINEST(G2:G9,H2:H9,,TRUE)</f>
+        <v>2.2954618149309096E-2</v>
+      </c>
+      <c r="R7">
+        <v>-1.9244515556478072</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>44.7</v>
       </c>
@@ -5154,15 +12033,46 @@
         <v>480</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.899999999999999</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>5231.9999999999991</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>9.1743119266055064</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="K8">
+        <f>K7*10000</f>
+        <v>33.812975786856775</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8">
+        <f>M7*10000</f>
+        <v>6.7820192558075103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8">
+        <v>6.7820192558075106E-4</v>
+      </c>
+      <c r="R8">
+        <v>0.2614199019688021</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45</v>
       </c>
@@ -5173,21 +12083,443 @@
         <v>512</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>5120</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>0.99478972754386508</v>
+      </c>
+      <c r="R9">
+        <v>0.16386806233916101</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>23.625</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:AB10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>4.1322314049586772</v>
+      </c>
+      <c r="D2" s="1">
+        <v>256</v>
+      </c>
+      <c r="H2" s="4">
+        <f>1.28*2/G6</f>
+        <v>5.9071924683296029E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="M2" s="1">
+        <v>256</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>0.9188*2/36.397</f>
+        <v>5.0487677555842513E-2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>0.008438*2/X5</f>
+        <v>0.143747870528109</v>
+      </c>
+    </row>
+    <row r="3" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="D3" s="1">
+        <v>288</v>
+      </c>
+      <c r="H3" s="4">
+        <f>H2*G8</f>
+        <v>1.9973975589993156</v>
+      </c>
+      <c r="L3" s="1">
+        <v>7.3529411764705914</v>
+      </c>
+      <c r="M3" s="1">
+        <v>288</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>Q2*P8</f>
+        <v>1.9421538742093933</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>3.109</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="4">
+        <f>Z2*X6</f>
+        <v>7.9442340808817142E-3</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>5.3191489361702136</v>
+      </c>
+      <c r="D4" s="1">
+        <v>320</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1">
+        <v>7.874015748031499</v>
+      </c>
+      <c r="M4" s="1">
+        <v>320</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="1">
+        <v>30.468200000000003</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="D5" s="1">
+        <v>341</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>25.401600000000002</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8.6206896551724181</v>
+      </c>
+      <c r="M5" s="1">
+        <v>341</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="1">
+        <v>20.384000000000004</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.1174</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D6" s="1">
+        <v>384</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43.337000000000003</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="L6" s="1">
+        <v>9.8039215686274481</v>
+      </c>
+      <c r="M6" s="1">
+        <v>384</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="1">
+        <v>36.396999999999998</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="1">
+        <v>5</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="1">
+        <v>5.5265055765318406E-2</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>7.9439999999999997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="D7" s="1">
+        <v>426</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.3812975786856772E-3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10.869565217391301</v>
+      </c>
+      <c r="M7" s="1">
+        <v>426</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3.846787905942495E-3</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="1">
+        <v>6</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
+        <v>552.65055765318402</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>Z6*10000</f>
+        <v>79.44</v>
+      </c>
+    </row>
+    <row r="8" spans="3:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>9.1743119266055064</v>
+      </c>
+      <c r="D8" s="1">
+        <v>480</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>33.812975786856775</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="1">
+        <v>12.195121951219509</v>
+      </c>
+      <c r="M8" s="1">
+        <v>480</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1">
+        <v>38.467879059424952</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="1">
+        <v>7</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>512</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1">
+        <v>13.513513513513503</v>
+      </c>
+      <c r="M9" s="1">
+        <v>512</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>